--- a/таблицы 2/погружной насос.xlsx
+++ b/таблицы 2/погружной насос.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8430"/>
+    <workbookView windowWidth="28110" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="установка погружных насосов" sheetId="1" r:id="rId1"/>
@@ -138,11 +138,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd.mm.yyyy\ h:mm"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy\ h:mm"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -160,37 +160,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,21 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,7 +190,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,14 +241,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -267,6 +251,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,8 +287,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,73 +325,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,6 +481,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,97 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,8 +545,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -569,41 +571,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,6 +602,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -642,152 +642,152 @@
     </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,13 +1214,13 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="8" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15.8190476190476" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="53.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="14.0666666666667" customWidth="1"/>
     <col min="4" max="4" width="26.3714285714286" customWidth="1"/>
     <col min="5" max="5" width="28.1238095238095" customWidth="1"/>
